--- a/src/test/resources/excelData/adminLoginData.xlsx
+++ b/src/test/resources/excelData/adminLoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20212025-IT\20242025-1\IntelliJ\DemoTestNG\src\test\resources\loginData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20212025-IT\20242025-1\IntelliJ\DemoTestNG\src\test\resources\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A95EC5C-FE83-42EF-B3D5-ADCC47D3DE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94356DF-3A95-49BC-8D72-AE703AA4B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{701F9C5C-CC96-45F3-B2A0-53FBE6F35BB1}"/>
   </bookViews>
@@ -103,11 +103,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +447,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +487,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,5 +534,6 @@
     <hyperlink ref="B6" r:id="rId8" xr:uid="{1F9B25A3-AB33-4029-8F41-7109A0D7811E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>